--- a/data/sysml2/result/HazardElement.xlsx
+++ b/data/sysml2/result/HazardElement.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,7 @@
           <t>HazardElement</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -520,11 +516,7 @@
           <t>HazardElement</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -580,11 +572,7 @@
           <t>Collide</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -614,11 +602,7 @@
           <t>Collide</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -636,29 +620,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Explode</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>CollideCondition</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>ExplodeCondition</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -666,59 +642,38 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>in</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Spill</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>CollideCondition</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SpillCondition</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Spill</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>DamageCondition</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>PullotedCondition</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -726,49 +681,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Spill</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>DamageCondition</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>DetachedCondition</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>Casualty</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -782,19 +720,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>Casualty</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -808,20 +742,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>Explode</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ExplodeCondition</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -829,49 +763,41 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>ExplodeCondition</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>ExplodeCondition</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -881,18 +807,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>Spill</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>SpillCondition</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -902,20 +833,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>Spill</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>PullotedCondition</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -928,35 +859,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>Spill</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DetachedCondition</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>SpillCondition</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -970,19 +902,15 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>SpillCondition</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -991,19 +919,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>PullotedCondition</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1017,19 +941,15 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>PullotedCondition</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1038,19 +958,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>DetachedCondition</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1064,19 +980,15 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>out</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>DetachedCondition</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -1090,14 +1002,10 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleBreakdown</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -1116,14 +1024,10 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleBreakdown</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -1137,14 +1041,10 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleCollision</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -1163,14 +1063,10 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleCollision</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -1184,14 +1080,10 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleDeparture</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -1210,14 +1102,10 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleDeparture</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -1231,14 +1119,10 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleExplosion</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -1257,14 +1141,10 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleExplosion</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -1273,91 +1153,54 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HazardStates</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleLaneChange</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>DriveState</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Collide</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>CollideState</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HazardStates</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleLaneChange</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>CollideState</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Spill</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>SpillState</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleMotion</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
@@ -1371,19 +1214,15 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleMotion</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -1392,19 +1231,15 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleOverturn</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
@@ -1418,19 +1253,15 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleOverturn</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
@@ -1439,19 +1270,15 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleSpeedChange</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
@@ -1465,19 +1292,15 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleSpeedChange</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
@@ -1486,23 +1309,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1512,28 +1331,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleSpillage</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1545,11 +1360,7 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1559,7 +1370,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1571,32 +1382,24 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1606,91 +1409,100 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>state</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>HazardStates</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>DriveState</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Collide</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>CollideState</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>state</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>HazardStates</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>def</t>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>CollideState</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Spill</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>SpillState</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleCargo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -1700,44 +1512,36 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleCargo</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>VehicleComponents</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -1747,44 +1551,36 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>VehicleComponents</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>VehiclePassengers</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -1794,23 +1590,19 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>item</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>VehiclePassengers</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>def</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1820,7 +1612,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1846,7 +1638,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1867,7 +1659,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1893,7 +1685,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1914,7 +1706,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1940,7 +1732,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1961,7 +1753,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1987,7 +1779,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2003,23 +1795,23 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>part Sub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleSpillage</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2029,46 +1821,42 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>part Sub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleSpillage</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>def</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -2080,50 +1868,42 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>def</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>def</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -2135,50 +1915,42 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>def</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>VehicleComponents</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>def</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -2190,25 +1962,21 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>VehicleComponents</t>
-        </is>
-      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>def</t>
         </is>
       </c>
     </row>
@@ -2220,7 +1988,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -2229,7 +1997,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>def</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -2246,7 +2014,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VehicleMotion</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -2255,7 +2023,7 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>def</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2035,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleLaneChange</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -2276,7 +2044,7 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>def</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -2293,7 +2061,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>VehicleTransport</t>
+          <t>VehicleLaneChange</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -2302,7 +2070,7 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>def</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2082,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -2323,7 +2091,7 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>def</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -2340,7 +2108,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>VehicleDeparture</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -2349,30 +2117,30 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>def</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>435</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>HazardElement</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2382,37 +2150,41 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>VehicleExplosion</t>
+          <t>435</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>HazardElement</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleCargo</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>VehicleCargo</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
@@ -2429,16 +2201,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>VehicleSpillage</t>
+          <t>VehicleCargo</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>VehicleCargo</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
@@ -2450,16 +2226,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>VehiclePassengers</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>VehiclePassengers</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
@@ -2476,16 +2256,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>VehicleOverturn</t>
+          <t>VehiclePassengers</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VehiclePassengers</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
@@ -2497,16 +2281,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>VehicleComponents</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>VehicleComponents</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
@@ -2523,16 +2311,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>VehicleBreakdown</t>
+          <t>VehicleComponents</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>VehicleComponents</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
@@ -2549,7 +2341,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -2575,7 +2367,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>VehicleCollision</t>
+          <t>VehicleMotion</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -2596,7 +2388,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -2622,7 +2414,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>VehicleTurning</t>
+          <t>VehicleTransport</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -2643,7 +2435,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -2669,7 +2461,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>VehicleLaneChange</t>
+          <t>VehicleDeparture</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -2690,15 +2482,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>HazardElement</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
@@ -2720,15 +2508,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>VehicleSpeedChange</t>
+          <t>VehicleExplosion</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>HazardElement</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
@@ -2740,23 +2524,23 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>part Sub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleSpillage</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -2766,46 +2550,42 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>part Sub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>""</t>
-        </is>
-      </c>
+          <t>VehicleSpillage</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -2817,50 +2597,42 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>VehicleCargo</t>
+          <t>VehicleOverturn</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>VehicleCargo</t>
-        </is>
-      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>435</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -2872,50 +2644,42 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>VehiclePassengers</t>
+          <t>VehicleBreakdown</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>VehiclePassengers</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>435</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>HazardElement</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -2927,51 +2691,39 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>itemComposition</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>VehicleComponents</t>
+          <t>VehicleCollision</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>HazardElement</t>
-        </is>
-      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>HazardVehicle</t>
+          <t>435</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>VehicleType</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
           <t>435</t>
@@ -2986,26 +2738,18 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>VehicleType</t>
+          <t>VehicleTurning</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
           <t>435</t>
@@ -3015,27 +2759,23 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CollisionCondition</t>
+          <t>VehicleLaneChange</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3045,52 +2785,44 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CollisionCondition</t>
+          <t>VehicleLaneChange</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CombustionCondition</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3100,51 +2832,43 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CombustionCondition</t>
+          <t>VehicleSpeedChange</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>HazardElement</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
@@ -3155,52 +2879,48 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SpillCondition</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>HazardElement</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BreakdownCondition</t>
+          <t>VehicleCargo</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>VehicleCargo</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -3210,52 +2930,52 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BreakdownCondition</t>
+          <t>VehicleCargo</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>VehicleCargo</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RollOverCondition</t>
+          <t>VehiclePassengers</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>VehiclePassengers</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -3265,54 +2985,50 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RollOverCondition</t>
+          <t>VehiclePassengers</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>VehiclePassengers</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>HazardVehicle</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>AbnormalSpeedCondition</t>
+          <t>VehicleComponents</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>VehicleComponents</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -3324,29 +3040,25 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>itemComposition</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>AbnormalSpeedCondition</t>
+          <t>VehicleComponents</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>String</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>VehicleComponents</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>HazardVehicle</t>
         </is>
       </c>
     </row>
@@ -3358,22 +3070,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>IIIegalLaneOccupationCondition</t>
+          <t>VehicleType</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr"/>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -3388,22 +3104,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>IIIegalLaneOccupationCondition</t>
+          <t>VehicleType</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>String</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Bool</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr"/>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3413,22 +3133,26 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DrivingDirection</t>
+          <t>CollisionCondition</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr"/>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -3443,22 +3167,26 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DrivingDirection</t>
+          <t>CollisionCondition</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Enum</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr"/>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3468,19 +3196,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>VehiclePosition</t>
+          <t>CombustionCondition</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -3502,19 +3230,19 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>VehiclePosition</t>
+          <t>CombustionCondition</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -3531,19 +3259,19 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>VehicleSpeed</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -3565,19 +3293,19 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>VehicleSpeed</t>
+          <t>SpillCondition</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>Bool</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -3589,21 +3317,29 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>partAssociate</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>BreakdownCondition</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -3615,19 +3351,452 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>partAssociate</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>BreakdownCondition</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>RollOverCondition</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>RollOverCondition</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>AbnormalSpeedCondition</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>AbnormalSpeedCondition</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>IIIegalLaneOccupationCondition</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>IIIegalLaneOccupationCondition</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Bool</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>DrivingDirection</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>"????"</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>DrivingDirection</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Enum</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>"????"</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>VehiclePosition</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>VehiclePosition</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>VehicleSpeed</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>VehicleSpeed</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>-28</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>-28</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
         <is>
           <t>none</t>
         </is>
